--- a/public/excelop/template/putoutm.xlsx
+++ b/public/excelop/template/putoutm.xlsx
@@ -2,22 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8265"/>
+    <workbookView windowWidth="19770" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$G$2</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>&lt;%=_data_[0][0].date+"出库单"%&gt;</t>
   </si>
@@ -37,6 +37,9 @@
     <t>单价</t>
   </si>
   <si>
+    <t>材料类别</t>
+  </si>
+  <si>
     <t>总价</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>&lt;%=rs1.unitPrice%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.cname%&gt;</t>
   </si>
   <si>
     <t>&lt;%=rs1.total%&gt;</t>
@@ -91,13 +97,105 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -117,14 +215,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,64 +230,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -197,48 +243,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,55 +265,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,12 +403,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -404,42 +446,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,6 +500,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -509,17 +554,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,197 +597,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -815,6 +821,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1147,22 +1154,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="1" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="6" width="19.375" customWidth="1"/>
+    <col min="5" max="7" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1171,8 +1177,9 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
-    <row r="2" ht="17.25" spans="1:6">
+    <row r="2" ht="17.25" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1191,39 +1198,45 @@
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="7:7">
-      <c r="G4" t="s">
-        <v>14</v>
+    <row r="4" spans="8:8">
+      <c r="H4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:E3"/>
+  <autoFilter ref="A2:G2"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/public/excelop/template/putoutm.xlsx
+++ b/public/excelop/template/putoutm.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8190"/>
+    <workbookView windowWidth="28695" windowHeight="12735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$H$3</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>&lt;%=_data_[0][0].date+"出库单"%&gt;</t>
   </si>
@@ -25,6 +25,9 @@
     <t>日期</t>
   </si>
   <si>
+    <t>门店</t>
+  </si>
+  <si>
     <t>材料名称</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
   </si>
   <si>
     <t>&lt;%=rs1.date%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.store%&gt;</t>
   </si>
   <si>
     <t>&lt;%=rs1.name%&gt;</t>
@@ -75,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -101,9 +107,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,6 +129,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -137,31 +157,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,7 +189,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,14 +211,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -214,37 +226,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,19 +277,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,151 +421,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,17 +506,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,16 +524,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -556,20 +567,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,162 +603,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1154,21 +1160,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="7" width="19.375" customWidth="1"/>
+    <col min="1" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="8" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1178,8 +1184,9 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
-    <row r="2" ht="17.25" spans="1:7">
+    <row r="2" ht="17.25" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1192,51 +1199,57 @@
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="H3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="8:8">
-      <c r="H4" t="s">
-        <v>16</v>
+    <row r="4" spans="9:9">
+      <c r="I4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G2"/>
+  <autoFilter ref="A2:H3"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/public/excelop/template/putoutm.xlsx
+++ b/public/excelop/template/putoutm.xlsx
@@ -10,16 +10,19 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$H$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$H$4</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>&lt;%=_data_[0][0].date+"出库单"%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%="总金额"+_data_[0][0].totalout%&gt;</t>
   </si>
   <si>
     <t>日期</t>
@@ -81,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -100,6 +103,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -108,7 +139,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,15 +160,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -138,50 +169,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,47 +244,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,187 +274,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,43 +512,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,8 +551,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,17 +572,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,148 +611,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1160,13 +1163,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="4" width="17.125" customWidth="1"/>
@@ -1186,68 +1189,82 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" ht="17.25" spans="1:8">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="I4" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="9:9">
-      <c r="I4" t="s">
-        <v>18</v>
+    <row r="5" spans="9:9">
+      <c r="I5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H3"/>
+  <autoFilter ref="A3:H4"/>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
